--- a/dict.xlsx
+++ b/dict.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="240" windowWidth="6300" windowHeight="12210"/>
+    <workbookView xWindow="720" yWindow="240" windowWidth="6300" windowHeight="12210" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="500">
   <si>
     <t>AAKJAR</t>
   </si>
@@ -1184,6 +1185,336 @@
   </si>
   <si>
     <t>S74100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  CODE  OPT SSN           UNION ID   NAME                           AMT DEDUCTED    REMARKS                    EMPACT   ANNIV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  VNY    B  XXX-XX-XXXX              ABRAMS-ALIFERIS BONNIE S              21.37                               B52800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  VNY    B  XXX-XX-XXXX              ARTICOLO LISA C                       21.37                               B52800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  VNY    B  XXX-XX-XXXX              BALLAR MARIVIC TEVES                  21.37                               B52800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  VNY    B  XXX-XX-XXXX              BALSAMO MELINA C                      21.37                               B52800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  VNY    B  XXX-XX-XXXX              BARNES JENNIFER L                     21.37                               B52800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  VNY    B  XXX-XX-XXXX              BEWICK THOMAS J                       21.37                               B52800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  VNY    B  XXX-XX-XXXX              BISCOSSI MICHELE LEE                  21.37                               B52800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  VNY    B  XXX-XX-XXXX              BOWER-CARUSO PAMELA                   21.37                               B52800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  VNY    B  XXX-XX-XXXX              BOWMAN SUSAN M                        21.37                               B52800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  VNY    B  XXX-XX-XXXX              BRINK MARIE A                         21.37                               B52800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  VNY    B  XXX-XX-XXXX              BROWN LINDA J                         21.37                               B52800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  VNY    B  XXX-XX-XXXX              CENIZA SHEILA                         21.37                               B52800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  VNY    B  XXX-XX-XXXX              CERNY MARCEL                          21.37                               B52800   080616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  VNY    B  XXX-XX-XXXX              CHAPMAN SHERRI L                      21.37                               B52800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  VNY    B  XXX-XX-XXXX              CHONOU KAREN C                        21.37                               B52800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  VNY    B  XXX-XX-XXXX              CHRISTY MARK T                        21.37                               B52800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  VNY    B  XXX-XX-XXXX              CLAY PATRICK C                        21.37                               B52800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  VNY    B  XXX-XX-XXXX              CLIMACO JASMINE B                     21.37                               B52800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  VNY    B  XXX-XX-XXXX              COSTELLO ERIN J                       21.37                               B52800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  VNY    B  XXX-XX-XXXX              CRAGO KATHRYN A                       21.37                               V66400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  VNY    B  XXX-XX-XXXX              CRISAFULLI KATHLEEN W                 21.37                               B52800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  VNY    B  XXX-XX-XXXX              DASHNAW JACALYN M                     21.37                               B52800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  VNY    B  XXX-XX-XXXX              DAWES STACEY LYNN                     21.37                               B52800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  VNY    B  XXX-XX-XXXX              DEFRUSCIO KATHLEEN                    21.37                               B52800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  VNY    B  XXX-XX-XXXX              DEL SANTO LAURIE                      21.37                               B52800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  VNY    B  XXX-XX-XXXX              DEORIO ANGELINA                       21.37                               B52800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  VNY    B  XXX-XX-XXXX              DINGEE VALERIE J                      21.37                               B52800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  VNY    B  XXX-XX-XXXX              DRUMM NIKKI L                         21.37                               B52800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  VNY    B  XXX-XX-XXXX              EMUCHAY DORCAS A                      21.37                               B52800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  VNY    B  XXX-XX-XXXX              FARRELL ELIZABETH E                   21.37                               B52800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  VNY    B  XXX-XX-XXXX              FLYNN CONNIE E                        21.37                               B52800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  VNY    B  XXX-XX-XXXX              FORSTER TAMMY MARIE                   21.37                               B52800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  VNY    B  XXX-XX-XXXX              FORTUNO JOHN P                          .00    INSUFFICIENT               B52800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  VNY    B  XXX-XX-XXXX              FROESE NICHOLEE                       21.37                               B52800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  VNY    B  XXX-XX-XXXX              FURDYNA P P                           21.37                               B52800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  VNY    B  XXX-XX-XXXX              FURTHMAN BARBARA A                    21.37                               B52800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  VNY    B  XXX-XX-XXXX              GAGNON CHRISTINE C                    21.37                               B52800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  VNY    B  XXX-XX-XXXX              GARCIA ROCHELLE V                     21.37                               B52800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  VNY    B  XXX-XX-XXXX              GIBNEY DEBRA L                        21.37                               B52800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  VNY    B  XXX-XX-XXXX              GLENNING NADINE A                     21.37                               B52800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  VNY    B  XXX-XX-XXXX              HALLENBECK DEBORAH A                  21.37                               B52800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  VNY    B  XXX-XX-XXXX              HAMMOND LINDA                         21.37                               B52800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  VNY    B  XXX-XX-XXXX              HARRINGTON CHELSEA A                  21.37                               B52800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  VNY    B  XXX-XX-XXXX              HAYDEN KENDRA                         21.37                               B52800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  VNY    B  XXX-XX-XXXX              HAYES ERIN L                          21.37                               B52800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  VNY    B  XXX-XX-XXXX              HAYES MICHAEL J                       21.37                               B52800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  VNY    B  XXX-XX-XXXX              HAYNES AVIS M                         21.37                               B52800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  VNY    B  XXX-XX-XXXX              HERRINGTON MARLENE M                  21.37                               B52800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  VNY    B  XXX-XX-XXXX              HERRITT ELLEN A                       21.37                               B52800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  VNY    B  XXX-XX-XXXX              HIGGINS SVITLANA                      21.37                               B52800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  VNY    B  XXX-XX-XXXX              HINDS JUDITH A                        21.37                               B52800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  VNY    B  XXX-XX-XXXX              HUBERT VICKI A                        21.37                               B52800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  VNY    B  XXX-XX-XXXX              KEANE CHARLOTTE F                     21.37                               B52800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  VNY    B  XXX-XX-XXXX              KEIGLEY CARLA M                       21.37                               B52800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  VNY    B  XXX-XX-XXXX              KILLIKELLY CORETTA E                  21.37                               B52800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  VNY    B  XXX-XX-XXXX              KINDLON ELSIE D                       21.37                               B52800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  VNY    B  XXX-XX-XXXX              KUNDA AONDONA M                       21.37                               B52800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  VNY    B  XXX-XX-XXXX              LAMPHERE MARA S                       21.37                               B52800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  VNY    B  XXX-XX-XXXX              LANE GRETCHEN M                       21.37                               B52800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  VNY    B  XXX-XX-XXXX              LEE MARY C                            21.37                               B52800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  VNY    B  XXX-XX-XXXX              LEWIS DONNA B                         21.37                               B52800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  VNY    B  XXX-XX-XXXX              LIPTAK SHEILA D                       21.37                               B52800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  VNY    B  XXX-XX-XXXX              MACDONALD LINDA S                     21.37                               B52800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  VNY    B  XXX-XX-XXXX              MAJAN PEARL J                         21.37                               B52800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  VNY    B  XXX-XX-XXXX              MARTE RAWELLYN                        21.37                               B52800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  VNY    B  XXX-XX-XXXX              MARTIN DOROTHY J                      21.37                               B52800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  VNY    B  XXX-XX-XXXX              MARTIN NANCY L                        21.37                               B52800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  VNY    B  XXX-XX-XXXX              MCHUGH TRACEY M                       21.37                               B52800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  VNY    B  XXX-XX-XXXX              MCKAY KEVIN R                         21.37                               B52800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  VNY    B  XXX-XX-XXXX              MEEHAN ELLEN M                        21.37                               B52800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  VNY    B  XXX-XX-XXXX              MELUCH KRISTIN M                      21.37                               B52800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  VNY    B  XXX-XX-XXXX              MENTO SAMUEL B                        21.37                               B52800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  VNY    B  XXX-XX-XXXX              NAVARRO-PERKINS MARY J                21.37                               B52800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  VNY    B  XXX-XX-XXXX              NEARY MARLENE                         21.37                               B52800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  VNY    B  XXX-XX-XXXX              NEUBERT STEFANIE S                    21.37                               B52800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  VNY    B  XXX-XX-XXXX              OBRIEN CLAUDIA N                      21.37                               B52800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  VNY    B  XXX-XX-XXXX              OCLAIR COURTNEY M                       .00    INSUFFICIENT               B52800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  VNY    B  XXX-XX-XXXX              OKOREN NORA S                         21.37                               B52800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  VNY    B  XXX-XX-XXXX              OROPALLO OLIVIA R                     21.37                               B52800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  VNY    B  XXX-XX-XXXX              PAINTON SHELBY M                      21.37                               B52800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  VNY    B  XXX-XX-XXXX              PATTERSON REBECCA A                   21.37                               B52800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  VNY    B  XXX-XX-XXXX              PLACE SARAH                           21.37                               B52800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  VNY    B  XXX-XX-XXXX              RACELA SHIAN B                        21.37                               B52800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  VNY    B  XXX-XX-XXXX              RAINKA KATHLEEN N                     21.37                               B52800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  VNY    B  XXX-XX-XXXX              RIVERS REGINA R                       21.37                               B52800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  VNY    B  XXX-XX-XXXX              ROCHE MICHAEL J                       21.37                               B52800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  VNY    B  XXX-XX-XXXX              RODOLAKIS LAURA L                     21.37                               B52800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  VNY    B  XXX-XX-XXXX              ROURKE JOANNE MARY                    21.37                               B52800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  VNY    B  XXX-XX-XXXX              SABARRE DEBRA B                       21.37                               B52800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  VNY    B  XXX-XX-XXXX              SCHULTZE JODY L                       21.37                               B52800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  VNY    B  XXX-XX-XXXX              SCOTT CAROLYN B                       21.37                               B52800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  VNY    B  XXX-XX-XXXX              SEBAST MARY L                         21.37                               B52800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  VNY    B  XXX-XX-XXXX              SHAFER TAL H                          21.37                               B52800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  VNY    B  XXX-XX-XXXX              SHERIDAN MARGOT A                     21.37                               B52800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  VNY    B  XXX-XX-XXXX              SHORE BRENDA C                        21.37                               B52800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  VNY    B  XXX-XX-XXXX              SMITH KARA M                          21.37                               B52800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  VNY    B  XXX-XX-XXXX              SMITH VALERIE G                       21.37                               B52800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  VNY    B  XXX-XX-XXXX              STACY VANESSA                         21.37                               B52800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  VNY    B  XXX-XX-XXXX              STEWART SAMANTHA A                    21.37                               B52800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  VNY    B  XXX-XX-XXXX              STREETER DOREEN                       21.37                               B52800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  VNY    B  XXX-XX-XXXX              TICE JACUALYN D                       21.37                               B52800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  VNY    B  XXX-XX-XXXX              VALE DEBRA M                          21.37                               B52800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  VNY    B  XXX-XX-XXXX              VERBICKI KAREN                        21.37                               B52800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  VNY    B  XXX-XX-XXXX              WARNER RHONDA A                       21.37                               B52800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  VNY    B  XXX-XX-XXXX              WELCH THOMAS M                        21.37                               B52800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  VNY    B  XXX-XX-XXXX              WILLIAMS VANESSA R                    21.37                               B52800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  VNY    B  XXX-XX-XXXX              WOLFE LEANN M                         21.37                               B52800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  VNY    B  XXX-XX-XXXX              WOODS SANDRA                          21.37                               B52800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  VNY    C  XXX-XX-XXXX              ROBINSON BRENDA J                     20.92                               S74100</t>
   </si>
 </sst>
 </file>
@@ -2028,7 +2359,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -5778,4 +6109,570 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A111"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="A131" sqref="A112:XFD131"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" ht="15" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>